--- a/Receipt_Analyzer/Receipt_Information.xlsx
+++ b/Receipt_Analyzer/Receipt_Information.xlsx
@@ -88,7 +88,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="165" formatCode="$#,##o0.00"/>
+    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
   </numFmts>
   <fonts count="1">
     <font>
